--- a/uCP Java  Full Stack Development Curriculum- Copy.xlsx
+++ b/uCP Java  Full Stack Development Curriculum- Copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13260"/>
+    <workbookView windowWidth="27945" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum- V3" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,13 +851,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1011,7 +1004,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1104,18 +1097,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1195,12 +1176,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,28 +1391,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1446,55 +1424,58 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1503,10 +1484,10 @@
     <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1515,10 +1496,10 @@
     <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1527,37 +1508,31 @@
     <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2061,9 +2036,9 @@
   <dimension ref="A1:GJ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="$A62:$XFD62"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4501,7 +4476,7 @@
       <c r="GI13" s="25"/>
       <c r="GJ13" s="25"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="83.25" customHeight="1" spans="1:192">
+    <row r="14" s="9" customFormat="1" ht="134" customHeight="1" spans="1:192">
       <c r="A14" s="19"/>
       <c r="B14" s="32" t="s">
         <v>26</v>
@@ -4703,7 +4678,7 @@
       <c r="GI14" s="25"/>
       <c r="GJ14" s="25"/>
     </row>
-    <row r="15" s="9" customFormat="1" ht="120" customHeight="1" spans="1:192">
+    <row r="15" s="9" customFormat="1" ht="192" customHeight="1" spans="1:192">
       <c r="A15" s="33"/>
       <c r="B15" s="20" t="s">
         <v>28</v>
@@ -7709,7 +7684,7 @@
       <c r="GI29" s="25"/>
       <c r="GJ29" s="25"/>
     </row>
-    <row r="30" s="9" customFormat="1" ht="53.25" customHeight="1" spans="1:192">
+    <row r="30" s="9" customFormat="1" ht="114" customHeight="1" spans="1:192">
       <c r="A30" s="33"/>
       <c r="B30" s="23" t="s">
         <v>51</v>
@@ -14160,7 +14135,7 @@
     <mergeCell ref="D62:D63"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:E6 B7:C7 E7 C8 D8:E8 C10 E10 B13 D14:E14 C15:E15 D17:E17 B18 B22 B25 C28 B31 B35 B36:D36 B43 D48 B57:E57 B1:B5 B8:B10 B15:B16 B39:B40 B46:B48 B51:B56 B58:B1048576 C48:C50 C59:C1048576 D59:D62 D64:D1048576 E26:E30 E48:E50 E59:E61 H59:H61 D11:E12 B23:E24 B37:E38 B41:E42 B26:D27 B29:D30 B32:E34 B44:E45 B19:E21 C54:E56 C51:E52 C1:E4 F1:XFD58 E62:XFD1048576 K59:XFD61"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:E6 B7:C7 E7 C8:E8 C10 E10 B13 D14:E14 C15:E15 D17:E17 B18 B22 B25 C28 B31 B35 B36:D36 B43 D48 B57:E57 B1:B5 B8:B10 B15:B16 B39:B40 B46:B48 B51:B56 B58:B1048576 C48:C50 C59:C1048576 D59:D62 D64:D1048576 E26:E30 E48:E50 E59:E61 H59:H61 B26:D27 B29:D30 B19:E21 B23:E24 B37:E38 B41:E42 B32:E34 B44:E45 C1:E4 C51:E52 C54:E56 D11:E12 E62:XFD1048576 F1:XFD58 K59:XFD61"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -14176,13 +14151,13 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19.8583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="15" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
@@ -14190,7 +14165,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -14198,7 +14173,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>104</v>
       </c>
@@ -14206,7 +14181,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>106</v>
       </c>
@@ -14214,7 +14189,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" ht="15" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>108</v>
       </c>
@@ -14222,7 +14197,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" ht="15" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -14230,7 +14205,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" ht="15" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>111</v>
       </c>
@@ -14238,7 +14213,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" ht="15" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>113</v>
       </c>
@@ -14246,7 +14221,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" ht="15" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>115</v>
       </c>
@@ -14254,7 +14229,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" ht="15" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>117</v>
       </c>
@@ -14262,7 +14237,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" ht="15" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>119</v>
       </c>
@@ -14270,7 +14245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" ht="15" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>120</v>
       </c>
@@ -14278,7 +14253,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" ht="15" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>121</v>
       </c>
@@ -14286,7 +14261,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" ht="15" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>123</v>
       </c>
@@ -14294,7 +14269,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" ht="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>125</v>
       </c>
@@ -14302,7 +14277,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" ht="15" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>127</v>
       </c>
@@ -14310,7 +14285,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" ht="15" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>129</v>
       </c>
@@ -14318,7 +14293,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" ht="15" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>131</v>
       </c>
@@ -14326,7 +14301,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" ht="15" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>132</v>
       </c>
@@ -14334,7 +14309,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" ht="15" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>134</v>
       </c>
@@ -14342,7 +14317,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" ht="15" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>136</v>
       </c>
